--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Cdon</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7055113968594831</v>
+        <v>0.211106</v>
       </c>
       <c r="H2">
-        <v>0.7055113968594831</v>
+        <v>0.6333179999999999</v>
       </c>
       <c r="I2">
-        <v>0.3410119788400526</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="J2">
-        <v>0.3410119788400526</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.765214622301576</v>
+        <v>1.12467</v>
       </c>
       <c r="N2">
-        <v>0.765214622301576</v>
+        <v>3.37401</v>
       </c>
       <c r="O2">
-        <v>0.01679902278998714</v>
+        <v>0.01913674935358929</v>
       </c>
       <c r="P2">
-        <v>0.01679902278998714</v>
+        <v>0.01913674935358929</v>
       </c>
       <c r="Q2">
-        <v>0.5398676370772866</v>
+        <v>0.23742458502</v>
       </c>
       <c r="R2">
-        <v>0.5398676370772866</v>
+        <v>2.13682126518</v>
       </c>
       <c r="S2">
-        <v>0.005728668004192655</v>
+        <v>0.001581374085316367</v>
       </c>
       <c r="T2">
-        <v>0.005728668004192655</v>
+        <v>0.001581374085316367</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7055113968594831</v>
+        <v>0.211106</v>
       </c>
       <c r="H3">
-        <v>0.7055113968594831</v>
+        <v>0.6333179999999999</v>
       </c>
       <c r="I3">
-        <v>0.3410119788400526</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="J3">
-        <v>0.3410119788400526</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.6565110759378</v>
+        <v>11.74650133333333</v>
       </c>
       <c r="N3">
-        <v>11.6565110759378</v>
+        <v>35.239504</v>
       </c>
       <c r="O3">
-        <v>0.2558994424694141</v>
+        <v>0.1998718306681982</v>
       </c>
       <c r="P3">
-        <v>0.2558994424694141</v>
+        <v>0.1998718306681982</v>
       </c>
       <c r="Q3">
-        <v>8.223801411692913</v>
+        <v>2.479756910474666</v>
       </c>
       <c r="R3">
-        <v>8.223801411692913</v>
+        <v>22.31781219427199</v>
       </c>
       <c r="S3">
-        <v>0.08726477526056109</v>
+        <v>0.01651650066389917</v>
       </c>
       <c r="T3">
-        <v>0.08726477526056109</v>
+        <v>0.01651650066389917</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7055113968594831</v>
+        <v>0.211106</v>
       </c>
       <c r="H4">
-        <v>0.7055113968594831</v>
+        <v>0.6333179999999999</v>
       </c>
       <c r="I4">
-        <v>0.3410119788400526</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="J4">
-        <v>0.3410119788400526</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.12196680206848</v>
+        <v>0.5320596666666667</v>
       </c>
       <c r="N4">
-        <v>0.12196680206848</v>
+        <v>1.596179</v>
       </c>
       <c r="O4">
-        <v>0.002677579633028435</v>
+        <v>0.00905322670841604</v>
       </c>
       <c r="P4">
-        <v>0.002677579633028435</v>
+        <v>0.00905322670841604</v>
       </c>
       <c r="Q4">
-        <v>0.08604896889781741</v>
+        <v>0.1123209879913333</v>
       </c>
       <c r="R4">
-        <v>0.08604896889781741</v>
+        <v>1.010888891922</v>
       </c>
       <c r="S4">
-        <v>0.0009130867291608483</v>
+        <v>0.0007481175533345167</v>
       </c>
       <c r="T4">
-        <v>0.0009130867291608483</v>
+        <v>0.0007481175533345167</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7055113968594831</v>
+        <v>0.211106</v>
       </c>
       <c r="H5">
-        <v>0.7055113968594831</v>
+        <v>0.6333179999999999</v>
       </c>
       <c r="I5">
-        <v>0.3410119788400526</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="J5">
-        <v>0.3410119788400526</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>33.0074465074726</v>
+        <v>0.2492753333333334</v>
       </c>
       <c r="N5">
-        <v>33.0074465074726</v>
+        <v>0.7478260000000001</v>
       </c>
       <c r="O5">
-        <v>0.7246239551075703</v>
+        <v>0.004241528247425843</v>
       </c>
       <c r="P5">
-        <v>0.7246239551075703</v>
+        <v>0.004241528247425843</v>
       </c>
       <c r="Q5">
-        <v>23.28712969225166</v>
+        <v>0.05262351851866667</v>
       </c>
       <c r="R5">
-        <v>23.28712969225166</v>
+        <v>0.473611666668</v>
       </c>
       <c r="S5">
-        <v>0.247105448846138</v>
+        <v>0.0003505006377354535</v>
       </c>
       <c r="T5">
-        <v>0.247105448846138</v>
+        <v>0.0003505006377354535</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.315503850294105</v>
+        <v>0.211106</v>
       </c>
       <c r="H6">
-        <v>0.315503850294105</v>
+        <v>0.6333179999999999</v>
       </c>
       <c r="I6">
-        <v>0.1525001478351416</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="J6">
-        <v>0.1525001478351416</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.765214622301576</v>
+        <v>0.05030366666666666</v>
       </c>
       <c r="N6">
-        <v>0.765214622301576</v>
+        <v>0.150911</v>
       </c>
       <c r="O6">
-        <v>0.01679902278998714</v>
+        <v>0.0008559387736549428</v>
       </c>
       <c r="P6">
-        <v>0.01679902278998714</v>
+        <v>0.0008559387736549428</v>
       </c>
       <c r="Q6">
-        <v>0.2414281596374965</v>
+        <v>0.01061940585533333</v>
       </c>
       <c r="R6">
-        <v>0.2414281596374965</v>
+        <v>0.09557465269799999</v>
       </c>
       <c r="S6">
-        <v>0.002561853458958952</v>
+        <v>7.073089427392871E-05</v>
       </c>
       <c r="T6">
-        <v>0.002561853458958952</v>
+        <v>7.073089427392871E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.315503850294105</v>
+        <v>0.211106</v>
       </c>
       <c r="H7">
-        <v>0.315503850294105</v>
+        <v>0.6333179999999999</v>
       </c>
       <c r="I7">
-        <v>0.1525001478351416</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="J7">
-        <v>0.1525001478351416</v>
+        <v>0.08263545997793841</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.6565110759378</v>
+        <v>45.06735933333334</v>
       </c>
       <c r="N7">
-        <v>11.6565110759378</v>
+        <v>135.202078</v>
       </c>
       <c r="O7">
-        <v>0.2558994424694141</v>
+        <v>0.7668407262487157</v>
       </c>
       <c r="P7">
-        <v>0.2558994424694141</v>
+        <v>0.7668407262487157</v>
       </c>
       <c r="Q7">
-        <v>3.677674125454256</v>
+        <v>9.513989959422666</v>
       </c>
       <c r="R7">
-        <v>3.677674125454256</v>
+        <v>85.62590963480399</v>
       </c>
       <c r="S7">
-        <v>0.03902470280751597</v>
+        <v>0.06336823614337897</v>
       </c>
       <c r="T7">
-        <v>0.03902470280751597</v>
+        <v>0.06336823614337897</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.315503850294105</v>
+        <v>0.7338789999999999</v>
       </c>
       <c r="H8">
-        <v>0.315503850294105</v>
+        <v>2.201637</v>
       </c>
       <c r="I8">
-        <v>0.1525001478351416</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="J8">
-        <v>0.1525001478351416</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.12196680206848</v>
+        <v>1.12467</v>
       </c>
       <c r="N8">
-        <v>0.12196680206848</v>
+        <v>3.37401</v>
       </c>
       <c r="O8">
-        <v>0.002677579633028435</v>
+        <v>0.01913674935358929</v>
       </c>
       <c r="P8">
-        <v>0.002677579633028435</v>
+        <v>0.01913674935358929</v>
       </c>
       <c r="Q8">
-        <v>0.03848099566066445</v>
+        <v>0.82537169493</v>
       </c>
       <c r="R8">
-        <v>0.03848099566066445</v>
+        <v>7.42834525437</v>
       </c>
       <c r="S8">
-        <v>0.0004083312898772005</v>
+        <v>0.005497414722262228</v>
       </c>
       <c r="T8">
-        <v>0.0004083312898772005</v>
+        <v>0.005497414722262228</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,805 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.315503850294105</v>
+        <v>0.7338789999999999</v>
       </c>
       <c r="H9">
-        <v>0.315503850294105</v>
+        <v>2.201637</v>
       </c>
       <c r="I9">
-        <v>0.1525001478351416</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="J9">
-        <v>0.1525001478351416</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.0074465074726</v>
+        <v>11.74650133333333</v>
       </c>
       <c r="N9">
-        <v>33.0074465074726</v>
+        <v>35.239504</v>
       </c>
       <c r="O9">
-        <v>0.7246239551075703</v>
+        <v>0.1998718306681982</v>
       </c>
       <c r="P9">
-        <v>0.7246239551075703</v>
+        <v>0.1998718306681982</v>
       </c>
       <c r="Q9">
-        <v>10.41397646148431</v>
+        <v>8.620510652005333</v>
       </c>
       <c r="R9">
-        <v>10.41397646148431</v>
+        <v>77.58459586804798</v>
       </c>
       <c r="S9">
-        <v>0.1105052602787895</v>
+        <v>0.05741718847745521</v>
       </c>
       <c r="T9">
-        <v>0.1105052602787895</v>
+        <v>0.05741718847745521</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.273199619652754</v>
+        <v>0.7338789999999999</v>
       </c>
       <c r="H10">
-        <v>0.273199619652754</v>
+        <v>2.201637</v>
       </c>
       <c r="I10">
-        <v>0.132052215358742</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="J10">
-        <v>0.132052215358742</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.765214622301576</v>
+        <v>0.5320596666666667</v>
       </c>
       <c r="N10">
-        <v>0.765214622301576</v>
+        <v>1.596179</v>
       </c>
       <c r="O10">
-        <v>0.01679902278998714</v>
+        <v>0.00905322670841604</v>
       </c>
       <c r="P10">
-        <v>0.01679902278998714</v>
+        <v>0.00905322670841604</v>
       </c>
       <c r="Q10">
-        <v>0.2090563437655164</v>
+        <v>0.3904674161136666</v>
       </c>
       <c r="R10">
-        <v>0.2090563437655164</v>
+        <v>3.514206745023</v>
       </c>
       <c r="S10">
-        <v>0.002218348175279797</v>
+        <v>0.002600720784457011</v>
       </c>
       <c r="T10">
-        <v>0.002218348175279797</v>
+        <v>0.002600720784457011</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.273199619652754</v>
+        <v>0.7338789999999999</v>
       </c>
       <c r="H11">
-        <v>0.273199619652754</v>
+        <v>2.201637</v>
       </c>
       <c r="I11">
-        <v>0.132052215358742</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="J11">
-        <v>0.132052215358742</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>11.6565110759378</v>
+        <v>0.2492753333333334</v>
       </c>
       <c r="N11">
-        <v>11.6565110759378</v>
+        <v>0.7478260000000001</v>
       </c>
       <c r="O11">
-        <v>0.2558994424694141</v>
+        <v>0.004241528247425843</v>
       </c>
       <c r="P11">
-        <v>0.2558994424694141</v>
+        <v>0.004241528247425843</v>
       </c>
       <c r="Q11">
-        <v>3.184554392424321</v>
+        <v>0.1829379323513333</v>
       </c>
       <c r="R11">
-        <v>3.184554392424321</v>
+        <v>1.646441391162</v>
       </c>
       <c r="S11">
-        <v>0.03379208828715308</v>
+        <v>0.001218463982646902</v>
       </c>
       <c r="T11">
-        <v>0.03379208828715308</v>
+        <v>0.001218463982646902</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.273199619652754</v>
+        <v>0.7338789999999999</v>
       </c>
       <c r="H12">
-        <v>0.273199619652754</v>
+        <v>2.201637</v>
       </c>
       <c r="I12">
-        <v>0.132052215358742</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="J12">
-        <v>0.132052215358742</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.12196680206848</v>
+        <v>0.05030366666666666</v>
       </c>
       <c r="N12">
-        <v>0.12196680206848</v>
+        <v>0.150911</v>
       </c>
       <c r="O12">
-        <v>0.002677579633028435</v>
+        <v>0.0008559387736549428</v>
       </c>
       <c r="P12">
-        <v>0.002677579633028435</v>
+        <v>0.0008559387736549428</v>
       </c>
       <c r="Q12">
-        <v>0.03332128393537147</v>
+        <v>0.03691680458966666</v>
       </c>
       <c r="R12">
-        <v>0.03332128393537147</v>
+        <v>0.332251241307</v>
       </c>
       <c r="S12">
-        <v>0.0003535803223408522</v>
+        <v>0.0002458855644029848</v>
       </c>
       <c r="T12">
-        <v>0.0003535803223408522</v>
+        <v>0.0002458855644029848</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.273199619652754</v>
+        <v>0.7338789999999999</v>
       </c>
       <c r="H13">
-        <v>0.273199619652754</v>
+        <v>2.201637</v>
       </c>
       <c r="I13">
-        <v>0.132052215358742</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="J13">
-        <v>0.132052215358742</v>
+        <v>0.2872700384316384</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.0074465074726</v>
+        <v>45.06735933333334</v>
       </c>
       <c r="N13">
-        <v>33.0074465074726</v>
+        <v>135.202078</v>
       </c>
       <c r="O13">
-        <v>0.7246239551075703</v>
+        <v>0.7668407262487157</v>
       </c>
       <c r="P13">
-        <v>0.7246239551075703</v>
+        <v>0.7668407262487157</v>
       </c>
       <c r="Q13">
-        <v>9.017621831550139</v>
+        <v>33.07398860018733</v>
       </c>
       <c r="R13">
-        <v>9.017621831550139</v>
+        <v>297.665897401686</v>
       </c>
       <c r="S13">
-        <v>0.09568819857396828</v>
+        <v>0.2202903649004141</v>
       </c>
       <c r="T13">
-        <v>0.09568819857396828</v>
+        <v>0.2202903649004141</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.346833382705362</v>
+        <v>0.3608143333333333</v>
       </c>
       <c r="H14">
-        <v>0.346833382705362</v>
+        <v>1.082443</v>
       </c>
       <c r="I14">
-        <v>0.1676434125524148</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="J14">
-        <v>0.1676434125524148</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.765214622301576</v>
+        <v>1.12467</v>
       </c>
       <c r="N14">
-        <v>0.765214622301576</v>
+        <v>3.37401</v>
       </c>
       <c r="O14">
-        <v>0.01679902278998714</v>
+        <v>0.01913674935358929</v>
       </c>
       <c r="P14">
-        <v>0.01679902278998714</v>
+        <v>0.01913674935358929</v>
       </c>
       <c r="Q14">
-        <v>0.2654019759484615</v>
+        <v>0.40579705627</v>
       </c>
       <c r="R14">
-        <v>0.2654019759484615</v>
+        <v>3.65217350643</v>
       </c>
       <c r="S14">
-        <v>0.002816245508059232</v>
+        <v>0.00270282434579801</v>
       </c>
       <c r="T14">
-        <v>0.002816245508059232</v>
+        <v>0.00270282434579801</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.346833382705362</v>
+        <v>0.3608143333333333</v>
       </c>
       <c r="H15">
-        <v>0.346833382705362</v>
+        <v>1.082443</v>
       </c>
       <c r="I15">
-        <v>0.1676434125524148</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="J15">
-        <v>0.1676434125524148</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.6565110759378</v>
+        <v>11.74650133333333</v>
       </c>
       <c r="N15">
-        <v>11.6565110759378</v>
+        <v>35.239504</v>
       </c>
       <c r="O15">
-        <v>0.2558994424694141</v>
+        <v>0.1998718306681982</v>
       </c>
       <c r="P15">
-        <v>0.2558994424694141</v>
+        <v>0.1998718306681982</v>
       </c>
       <c r="Q15">
-        <v>4.042867167010026</v>
+        <v>4.238306047585778</v>
       </c>
       <c r="R15">
-        <v>4.042867167010026</v>
+        <v>38.14475442827199</v>
       </c>
       <c r="S15">
-        <v>0.04289985580583292</v>
+        <v>0.02822937375557463</v>
       </c>
       <c r="T15">
-        <v>0.04289985580583292</v>
+        <v>0.02822937375557463</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.346833382705362</v>
+        <v>0.3608143333333333</v>
       </c>
       <c r="H16">
-        <v>0.346833382705362</v>
+        <v>1.082443</v>
       </c>
       <c r="I16">
-        <v>0.1676434125524148</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="J16">
-        <v>0.1676434125524148</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.12196680206848</v>
+        <v>0.5320596666666667</v>
       </c>
       <c r="N16">
-        <v>0.12196680206848</v>
+        <v>1.596179</v>
       </c>
       <c r="O16">
-        <v>0.002677579633028435</v>
+        <v>0.00905322670841604</v>
       </c>
       <c r="P16">
-        <v>0.002677579633028435</v>
+        <v>0.00905322670841604</v>
       </c>
       <c r="Q16">
-        <v>0.04230215853916626</v>
+        <v>0.1919747539218889</v>
       </c>
       <c r="R16">
-        <v>0.04230215853916626</v>
+        <v>1.727772785297</v>
       </c>
       <c r="S16">
-        <v>0.0004488785870617293</v>
+        <v>0.001278654023388052</v>
       </c>
       <c r="T16">
-        <v>0.0004488785870617293</v>
+        <v>0.001278654023388052</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.346833382705362</v>
+        <v>0.3608143333333333</v>
       </c>
       <c r="H17">
-        <v>0.346833382705362</v>
+        <v>1.082443</v>
       </c>
       <c r="I17">
-        <v>0.1676434125524148</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="J17">
-        <v>0.1676434125524148</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>33.0074465074726</v>
+        <v>0.2492753333333334</v>
       </c>
       <c r="N17">
-        <v>33.0074465074726</v>
+        <v>0.7478260000000001</v>
       </c>
       <c r="O17">
-        <v>0.7246239551075703</v>
+        <v>0.004241528247425843</v>
       </c>
       <c r="P17">
-        <v>0.7246239551075703</v>
+        <v>0.004241528247425843</v>
       </c>
       <c r="Q17">
-        <v>11.44808432665301</v>
+        <v>0.08994211321311113</v>
       </c>
       <c r="R17">
-        <v>11.44808432665301</v>
+        <v>0.8094790189180001</v>
       </c>
       <c r="S17">
-        <v>0.1214784326514609</v>
+        <v>0.0005990623380549385</v>
       </c>
       <c r="T17">
-        <v>0.1214784326514609</v>
+        <v>0.0005990623380549386</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.42782745174451</v>
+        <v>0.3608143333333333</v>
       </c>
       <c r="H18">
-        <v>0.42782745174451</v>
+        <v>1.082443</v>
       </c>
       <c r="I18">
-        <v>0.2067922454136489</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="J18">
-        <v>0.2067922454136489</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.765214622301576</v>
+        <v>0.05030366666666666</v>
       </c>
       <c r="N18">
-        <v>0.765214622301576</v>
+        <v>0.150911</v>
       </c>
       <c r="O18">
-        <v>0.01679902278998714</v>
+        <v>0.0008559387736549428</v>
       </c>
       <c r="P18">
-        <v>0.01679902278998714</v>
+        <v>0.0008559387736549428</v>
       </c>
       <c r="Q18">
-        <v>0.3273798218969209</v>
+        <v>0.01815028395255555</v>
       </c>
       <c r="R18">
-        <v>0.3273798218969209</v>
+        <v>0.163352555573</v>
       </c>
       <c r="S18">
-        <v>0.003473907643496501</v>
+        <v>0.0001208905500720873</v>
       </c>
       <c r="T18">
-        <v>0.003473907643496501</v>
+        <v>0.0001208905500720874</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.42782745174451</v>
+        <v>0.3608143333333333</v>
       </c>
       <c r="H19">
-        <v>0.42782745174451</v>
+        <v>1.082443</v>
       </c>
       <c r="I19">
-        <v>0.2067922454136489</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="J19">
-        <v>0.2067922454136489</v>
+        <v>0.1412373802811535</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.6565110759378</v>
+        <v>45.06735933333334</v>
       </c>
       <c r="N19">
-        <v>11.6565110759378</v>
+        <v>135.202078</v>
       </c>
       <c r="O19">
-        <v>0.2558994424694141</v>
+        <v>0.7668407262487157</v>
       </c>
       <c r="P19">
-        <v>0.2558994424694141</v>
+        <v>0.7668407262487157</v>
       </c>
       <c r="Q19">
-        <v>4.986975429850125</v>
+        <v>16.26094921295045</v>
       </c>
       <c r="R19">
-        <v>4.986975429850125</v>
+        <v>146.348542916554</v>
       </c>
       <c r="S19">
-        <v>0.052918020308351</v>
+        <v>0.1083065752682658</v>
       </c>
       <c r="T19">
-        <v>0.052918020308351</v>
+        <v>0.1083065752682658</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.42782745174451</v>
+        <v>0.3323383333333333</v>
       </c>
       <c r="H20">
-        <v>0.42782745174451</v>
+        <v>0.997015</v>
       </c>
       <c r="I20">
-        <v>0.2067922454136489</v>
+        <v>0.1300907176645923</v>
       </c>
       <c r="J20">
-        <v>0.2067922454136489</v>
+        <v>0.1300907176645923</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.12196680206848</v>
+        <v>1.12467</v>
       </c>
       <c r="N20">
-        <v>0.12196680206848</v>
+        <v>3.37401</v>
       </c>
       <c r="O20">
-        <v>0.002677579633028435</v>
+        <v>0.01913674935358929</v>
       </c>
       <c r="P20">
-        <v>0.002677579633028435</v>
+        <v>0.01913674935358929</v>
       </c>
       <c r="Q20">
-        <v>0.05218074612638483</v>
+        <v>0.37377095335</v>
       </c>
       <c r="R20">
-        <v>0.05218074612638483</v>
+        <v>3.36393858015</v>
       </c>
       <c r="S20">
-        <v>0.000553702704587804</v>
+        <v>0.002489513457175854</v>
       </c>
       <c r="T20">
-        <v>0.000553702704587804</v>
+        <v>0.002489513457175854</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3323383333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.997015</v>
+      </c>
+      <c r="I21">
+        <v>0.1300907176645923</v>
+      </c>
+      <c r="J21">
+        <v>0.1300907176645923</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.74650133333333</v>
+      </c>
+      <c r="N21">
+        <v>35.239504</v>
+      </c>
+      <c r="O21">
+        <v>0.1998718306681982</v>
+      </c>
+      <c r="P21">
+        <v>0.1998718306681982</v>
+      </c>
+      <c r="Q21">
+        <v>3.903812675617778</v>
+      </c>
+      <c r="R21">
+        <v>35.13431408056</v>
+      </c>
+      <c r="S21">
+        <v>0.02600146989256177</v>
+      </c>
+      <c r="T21">
+        <v>0.02600146989256177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3323383333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.997015</v>
+      </c>
+      <c r="I22">
+        <v>0.1300907176645923</v>
+      </c>
+      <c r="J22">
+        <v>0.1300907176645923</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.5320596666666667</v>
+      </c>
+      <c r="N22">
+        <v>1.596179</v>
+      </c>
+      <c r="O22">
+        <v>0.00905322670841604</v>
+      </c>
+      <c r="P22">
+        <v>0.00905322670841604</v>
+      </c>
+      <c r="Q22">
+        <v>0.1768238228538889</v>
+      </c>
+      <c r="R22">
+        <v>1.591414405685</v>
+      </c>
+      <c r="S22">
+        <v>0.001177740759678097</v>
+      </c>
+      <c r="T22">
+        <v>0.001177740759678097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3323383333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.997015</v>
+      </c>
+      <c r="I23">
+        <v>0.1300907176645923</v>
+      </c>
+      <c r="J23">
+        <v>0.1300907176645923</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.2492753333333334</v>
+      </c>
+      <c r="N23">
+        <v>0.7478260000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.004241528247425843</v>
+      </c>
+      <c r="P23">
+        <v>0.004241528247425843</v>
+      </c>
+      <c r="Q23">
+        <v>0.08284374882111113</v>
+      </c>
+      <c r="R23">
+        <v>0.7455937393900001</v>
+      </c>
+      <c r="S23">
+        <v>0.0005517834537022684</v>
+      </c>
+      <c r="T23">
+        <v>0.0005517834537022684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3323383333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.997015</v>
+      </c>
+      <c r="I24">
+        <v>0.1300907176645923</v>
+      </c>
+      <c r="J24">
+        <v>0.1300907176645923</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.05030366666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.150911</v>
+      </c>
+      <c r="O24">
+        <v>0.0008559387736549428</v>
+      </c>
+      <c r="P24">
+        <v>0.0008559387736549428</v>
+      </c>
+      <c r="Q24">
+        <v>0.01671783674055555</v>
+      </c>
+      <c r="R24">
+        <v>0.150460530665</v>
+      </c>
+      <c r="S24">
+        <v>0.0001113496893417225</v>
+      </c>
+      <c r="T24">
+        <v>0.0001113496893417225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3323383333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.997015</v>
+      </c>
+      <c r="I25">
+        <v>0.1300907176645923</v>
+      </c>
+      <c r="J25">
+        <v>0.1300907176645923</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>45.06735933333334</v>
+      </c>
+      <c r="N25">
+        <v>135.202078</v>
+      </c>
+      <c r="O25">
+        <v>0.7668407262487157</v>
+      </c>
+      <c r="P25">
+        <v>0.7668407262487157</v>
+      </c>
+      <c r="Q25">
+        <v>14.97761108857445</v>
+      </c>
+      <c r="R25">
+        <v>134.79849979717</v>
+      </c>
+      <c r="S25">
+        <v>0.09975886041213258</v>
+      </c>
+      <c r="T25">
+        <v>0.09975886041213258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.42782745174451</v>
-      </c>
-      <c r="H21">
-        <v>0.42782745174451</v>
-      </c>
-      <c r="I21">
-        <v>0.2067922454136489</v>
-      </c>
-      <c r="J21">
-        <v>0.2067922454136489</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>33.0074465074726</v>
-      </c>
-      <c r="N21">
-        <v>33.0074465074726</v>
-      </c>
-      <c r="O21">
-        <v>0.7246239551075703</v>
-      </c>
-      <c r="P21">
-        <v>0.7246239551075703</v>
-      </c>
-      <c r="Q21">
-        <v>14.12149172788523</v>
-      </c>
-      <c r="R21">
-        <v>14.12149172788523</v>
-      </c>
-      <c r="S21">
-        <v>0.1498466147572136</v>
-      </c>
-      <c r="T21">
-        <v>0.1498466147572136</v>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3734286666666666</v>
+      </c>
+      <c r="H26">
+        <v>1.120286</v>
+      </c>
+      <c r="I26">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="J26">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.12467</v>
+      </c>
+      <c r="N26">
+        <v>3.37401</v>
+      </c>
+      <c r="O26">
+        <v>0.01913674935358929</v>
+      </c>
+      <c r="P26">
+        <v>0.01913674935358929</v>
+      </c>
+      <c r="Q26">
+        <v>0.41998401854</v>
+      </c>
+      <c r="R26">
+        <v>3.77985616686</v>
+      </c>
+      <c r="S26">
+        <v>0.002797317064322712</v>
+      </c>
+      <c r="T26">
+        <v>0.002797317064322712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.3734286666666666</v>
+      </c>
+      <c r="H27">
+        <v>1.120286</v>
+      </c>
+      <c r="I27">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="J27">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>11.74650133333333</v>
+      </c>
+      <c r="N27">
+        <v>35.239504</v>
+      </c>
+      <c r="O27">
+        <v>0.1998718306681982</v>
+      </c>
+      <c r="P27">
+        <v>0.1998718306681982</v>
+      </c>
+      <c r="Q27">
+        <v>4.386480330904888</v>
+      </c>
+      <c r="R27">
+        <v>39.47832297814399</v>
+      </c>
+      <c r="S27">
+        <v>0.02921629333566541</v>
+      </c>
+      <c r="T27">
+        <v>0.02921629333566541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.3734286666666666</v>
+      </c>
+      <c r="H28">
+        <v>1.120286</v>
+      </c>
+      <c r="I28">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="J28">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.5320596666666667</v>
+      </c>
+      <c r="N28">
+        <v>1.596179</v>
+      </c>
+      <c r="O28">
+        <v>0.00905322670841604</v>
+      </c>
+      <c r="P28">
+        <v>0.00905322670841604</v>
+      </c>
+      <c r="Q28">
+        <v>0.1986863319104444</v>
+      </c>
+      <c r="R28">
+        <v>1.788176987194</v>
+      </c>
+      <c r="S28">
+        <v>0.001323356704459549</v>
+      </c>
+      <c r="T28">
+        <v>0.001323356704459549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.3734286666666666</v>
+      </c>
+      <c r="H29">
+        <v>1.120286</v>
+      </c>
+      <c r="I29">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="J29">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.2492753333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.7478260000000001</v>
+      </c>
+      <c r="O29">
+        <v>0.004241528247425843</v>
+      </c>
+      <c r="P29">
+        <v>0.004241528247425843</v>
+      </c>
+      <c r="Q29">
+        <v>0.09308655535955557</v>
+      </c>
+      <c r="R29">
+        <v>0.837778998236</v>
+      </c>
+      <c r="S29">
+        <v>0.0006200059961126958</v>
+      </c>
+      <c r="T29">
+        <v>0.0006200059961126958</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.3734286666666666</v>
+      </c>
+      <c r="H30">
+        <v>1.120286</v>
+      </c>
+      <c r="I30">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="J30">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.05030366666666666</v>
+      </c>
+      <c r="N30">
+        <v>0.150911</v>
+      </c>
+      <c r="O30">
+        <v>0.0008559387736549428</v>
+      </c>
+      <c r="P30">
+        <v>0.0008559387736549428</v>
+      </c>
+      <c r="Q30">
+        <v>0.01878483117177777</v>
+      </c>
+      <c r="R30">
+        <v>0.169063480546</v>
+      </c>
+      <c r="S30">
+        <v>0.0001251169722360054</v>
+      </c>
+      <c r="T30">
+        <v>0.0001251169722360054</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.3734286666666666</v>
+      </c>
+      <c r="H31">
+        <v>1.120286</v>
+      </c>
+      <c r="I31">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="J31">
+        <v>0.1461751425300476</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>45.06735933333334</v>
+      </c>
+      <c r="N31">
+        <v>135.202078</v>
+      </c>
+      <c r="O31">
+        <v>0.7668407262487157</v>
+      </c>
+      <c r="P31">
+        <v>0.7668407262487157</v>
+      </c>
+      <c r="Q31">
+        <v>16.82944390603422</v>
+      </c>
+      <c r="R31">
+        <v>151.464995154308</v>
+      </c>
+      <c r="S31">
+        <v>0.1120930524572512</v>
+      </c>
+      <c r="T31">
+        <v>0.1120930524572512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.5430996666666666</v>
+      </c>
+      <c r="H32">
+        <v>1.629299</v>
+      </c>
+      <c r="I32">
+        <v>0.2125912611146297</v>
+      </c>
+      <c r="J32">
+        <v>0.2125912611146298</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.12467</v>
+      </c>
+      <c r="N32">
+        <v>3.37401</v>
+      </c>
+      <c r="O32">
+        <v>0.01913674935358929</v>
+      </c>
+      <c r="P32">
+        <v>0.01913674935358929</v>
+      </c>
+      <c r="Q32">
+        <v>0.61080790211</v>
+      </c>
+      <c r="R32">
+        <v>5.497271118990001</v>
+      </c>
+      <c r="S32">
+        <v>0.004068305678714123</v>
+      </c>
+      <c r="T32">
+        <v>0.004068305678714124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.5430996666666666</v>
+      </c>
+      <c r="H33">
+        <v>1.629299</v>
+      </c>
+      <c r="I33">
+        <v>0.2125912611146297</v>
+      </c>
+      <c r="J33">
+        <v>0.2125912611146298</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>11.74650133333333</v>
+      </c>
+      <c r="N33">
+        <v>35.239504</v>
+      </c>
+      <c r="O33">
+        <v>0.1998718306681982</v>
+      </c>
+      <c r="P33">
+        <v>0.1998718306681982</v>
+      </c>
+      <c r="Q33">
+        <v>6.379520958632888</v>
+      </c>
+      <c r="R33">
+        <v>57.415688627696</v>
+      </c>
+      <c r="S33">
+        <v>0.04249100454304196</v>
+      </c>
+      <c r="T33">
+        <v>0.04249100454304198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.5430996666666666</v>
+      </c>
+      <c r="H34">
+        <v>1.629299</v>
+      </c>
+      <c r="I34">
+        <v>0.2125912611146297</v>
+      </c>
+      <c r="J34">
+        <v>0.2125912611146298</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.5320596666666667</v>
+      </c>
+      <c r="N34">
+        <v>1.596179</v>
+      </c>
+      <c r="O34">
+        <v>0.00905322670841604</v>
+      </c>
+      <c r="P34">
+        <v>0.00905322670841604</v>
+      </c>
+      <c r="Q34">
+        <v>0.2889614276134445</v>
+      </c>
+      <c r="R34">
+        <v>2.600652848521</v>
+      </c>
+      <c r="S34">
+        <v>0.001924636883098814</v>
+      </c>
+      <c r="T34">
+        <v>0.001924636883098815</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.5430996666666666</v>
+      </c>
+      <c r="H35">
+        <v>1.629299</v>
+      </c>
+      <c r="I35">
+        <v>0.2125912611146297</v>
+      </c>
+      <c r="J35">
+        <v>0.2125912611146298</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.2492753333333334</v>
+      </c>
+      <c r="N35">
+        <v>0.7478260000000001</v>
+      </c>
+      <c r="O35">
+        <v>0.004241528247425843</v>
+      </c>
+      <c r="P35">
+        <v>0.004241528247425843</v>
+      </c>
+      <c r="Q35">
+        <v>0.1353813504415556</v>
+      </c>
+      <c r="R35">
+        <v>1.218432153974</v>
+      </c>
+      <c r="S35">
+        <v>0.0009017118391735851</v>
+      </c>
+      <c r="T35">
+        <v>0.0009017118391735854</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.5430996666666666</v>
+      </c>
+      <c r="H36">
+        <v>1.629299</v>
+      </c>
+      <c r="I36">
+        <v>0.2125912611146297</v>
+      </c>
+      <c r="J36">
+        <v>0.2125912611146298</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.05030366666666666</v>
+      </c>
+      <c r="N36">
+        <v>0.150911</v>
+      </c>
+      <c r="O36">
+        <v>0.0008559387736549428</v>
+      </c>
+      <c r="P36">
+        <v>0.0008559387736549428</v>
+      </c>
+      <c r="Q36">
+        <v>0.02731990459877778</v>
+      </c>
+      <c r="R36">
+        <v>0.245879141389</v>
+      </c>
+      <c r="S36">
+        <v>0.0001819651033282139</v>
+      </c>
+      <c r="T36">
+        <v>0.0001819651033282139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.5430996666666666</v>
+      </c>
+      <c r="H37">
+        <v>1.629299</v>
+      </c>
+      <c r="I37">
+        <v>0.2125912611146297</v>
+      </c>
+      <c r="J37">
+        <v>0.2125912611146298</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>45.06735933333334</v>
+      </c>
+      <c r="N37">
+        <v>135.202078</v>
+      </c>
+      <c r="O37">
+        <v>0.7668407262487157</v>
+      </c>
+      <c r="P37">
+        <v>0.7668407262487157</v>
+      </c>
+      <c r="Q37">
+        <v>24.47606783148022</v>
+      </c>
+      <c r="R37">
+        <v>220.284610483322</v>
+      </c>
+      <c r="S37">
+        <v>0.163023637067273</v>
+      </c>
+      <c r="T37">
+        <v>0.163023637067273</v>
       </c>
     </row>
   </sheetData>
